--- a/state_results/Rivers/MakotukuatSH49A_e6b6f648fa.xlsx
+++ b/state_results/Rivers/MakotukuatSH49A_e6b6f648fa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U219"/>
+  <dimension ref="A1:U240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,13 +570,13 @@
         <v>3.2</v>
       </c>
       <c r="G2" t="n">
-        <v>3.65064783369672</v>
+        <v>3.74098186030617</v>
       </c>
       <c r="H2" t="n">
-        <v>8.27858418118784</v>
+        <v>9.130013478526751</v>
       </c>
       <c r="I2" t="n">
-        <v>6.86793</v>
+        <v>8.763439999999999</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -584,10 +584,10 @@
         <v>2.5</v>
       </c>
       <c r="M2" t="n">
-        <v>6.21035</v>
+        <v>6.18464</v>
       </c>
       <c r="N2" t="n">
-        <v>6.60564</v>
+        <v>7.21075</v>
       </c>
       <c r="O2" t="n">
         <v>1800243</v>
@@ -651,7 +651,7 @@
         <v>0.007</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0075622841072291</v>
+        <v>0.0075588659128896</v>
       </c>
       <c r="H3" t="n">
         <v>0.024</v>
@@ -732,7 +732,7 @@
         <v>0.007</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0075622841072291</v>
+        <v>0.0075588659128896</v>
       </c>
       <c r="H4" t="n">
         <v>0.024</v>
@@ -1153,7 +1153,7 @@
         <v>0.00559</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0070123299814112</v>
+        <v>0.0070293622767337</v>
       </c>
       <c r="H9" t="n">
         <v>0.0429608672420805</v>
@@ -1234,7 +1234,7 @@
         <v>0.00559</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0070123299814112</v>
+        <v>0.0070293622767337</v>
       </c>
       <c r="H10" t="n">
         <v>0.0429608672420805</v>
@@ -1315,7 +1315,7 @@
         <v>0.22</v>
       </c>
       <c r="G11" t="n">
-        <v>0.257846906443245</v>
+        <v>0.257840575229112</v>
       </c>
       <c r="H11" t="n">
         <v>0.597</v>
@@ -1396,7 +1396,7 @@
         <v>0.22</v>
       </c>
       <c r="G12" t="n">
-        <v>0.257846906443245</v>
+        <v>0.257840575229112</v>
       </c>
       <c r="H12" t="n">
         <v>0.597</v>
@@ -1781,7 +1781,7 @@
         <v>0.015</v>
       </c>
       <c r="G17" t="n">
-        <v>0.015481869402806</v>
+        <v>0.0154860042936312</v>
       </c>
       <c r="H17" t="n">
         <v>0.035</v>
@@ -1858,7 +1858,7 @@
         <v>0.015</v>
       </c>
       <c r="G18" t="n">
-        <v>0.015481869402806</v>
+        <v>0.0154860042936312</v>
       </c>
       <c r="H18" t="n">
         <v>0.035</v>
@@ -2020,13 +2020,13 @@
         <v>2.71</v>
       </c>
       <c r="G20" t="n">
-        <v>3.27000202059996</v>
+        <v>3.33830335779247</v>
       </c>
       <c r="H20" t="n">
-        <v>8.27858418118784</v>
+        <v>9.130013478526751</v>
       </c>
       <c r="I20" t="n">
-        <v>6.72691</v>
+        <v>7.92866</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2034,10 +2034,10 @@
         <v>2.65</v>
       </c>
       <c r="M20" t="n">
-        <v>5.73546</v>
+        <v>5.3655</v>
       </c>
       <c r="N20" t="n">
-        <v>6.55405</v>
+        <v>7.07092</v>
       </c>
       <c r="O20" t="n">
         <v>1800243</v>
@@ -2101,7 +2101,7 @@
         <v>0.008</v>
       </c>
       <c r="G21" t="n">
-        <v>0.008790119456412501</v>
+        <v>0.008787612780563499</v>
       </c>
       <c r="H21" t="n">
         <v>0.024</v>
@@ -2182,7 +2182,7 @@
         <v>0.008</v>
       </c>
       <c r="G22" t="n">
-        <v>0.008790119456412501</v>
+        <v>0.008787612780563499</v>
       </c>
       <c r="H22" t="n">
         <v>0.024</v>
@@ -2603,7 +2603,7 @@
         <v>0.00444</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0056930855500581</v>
+        <v>0.0057058597715499</v>
       </c>
       <c r="H27" t="n">
         <v>0.0429608672420805</v>
@@ -2684,7 +2684,7 @@
         <v>0.00444</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0056930855500581</v>
+        <v>0.0057058597715499</v>
       </c>
       <c r="H28" t="n">
         <v>0.0429608672420805</v>
@@ -2765,7 +2765,7 @@
         <v>0.21</v>
       </c>
       <c r="G29" t="n">
-        <v>0.238058842502824</v>
+        <v>0.23805419961246</v>
       </c>
       <c r="H29" t="n">
         <v>0.597</v>
@@ -2846,7 +2846,7 @@
         <v>0.21</v>
       </c>
       <c r="G30" t="n">
-        <v>0.238058842502824</v>
+        <v>0.23805419961246</v>
       </c>
       <c r="H30" t="n">
         <v>0.597</v>
@@ -3231,7 +3231,7 @@
         <v>0.015</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0162200375620577</v>
+        <v>0.0162230698153295</v>
       </c>
       <c r="H35" t="n">
         <v>0.035</v>
@@ -3308,7 +3308,7 @@
         <v>0.015</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0162200375620577</v>
+        <v>0.0162230698153295</v>
       </c>
       <c r="H36" t="n">
         <v>0.035</v>
@@ -3470,13 +3470,13 @@
         <v>2.755</v>
       </c>
       <c r="G38" t="n">
-        <v>3.35478514065588</v>
+        <v>3.40121642785696</v>
       </c>
       <c r="H38" t="n">
-        <v>8.27858418118784</v>
+        <v>9.130013478526751</v>
       </c>
       <c r="I38" t="n">
-        <v>6.87003</v>
+        <v>7.56674</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -3484,10 +3484,10 @@
         <v>2.8</v>
       </c>
       <c r="M38" t="n">
-        <v>6.09932</v>
+        <v>6.03998</v>
       </c>
       <c r="N38" t="n">
-        <v>6.65508</v>
+        <v>7.0873</v>
       </c>
       <c r="O38" t="n">
         <v>1800243</v>
@@ -3551,7 +3551,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0103781644831327</v>
+        <v>0.0103761855285151</v>
       </c>
       <c r="H39" t="n">
         <v>0.027</v>
@@ -3632,7 +3632,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0103781644831327</v>
+        <v>0.0103761855285151</v>
       </c>
       <c r="H40" t="n">
         <v>0.027</v>
@@ -4053,7 +4053,7 @@
         <v>0.00416</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0055421504940226</v>
+        <v>0.0055521873823377</v>
       </c>
       <c r="H45" t="n">
         <v>0.0429608672420805</v>
@@ -4134,7 +4134,7 @@
         <v>0.00416</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0055421504940226</v>
+        <v>0.0055521873823377</v>
       </c>
       <c r="H46" t="n">
         <v>0.0429608672420805</v>
@@ -4215,7 +4215,7 @@
         <v>0.2</v>
       </c>
       <c r="G47" t="n">
-        <v>0.225046454607493</v>
+        <v>0.225042789167732</v>
       </c>
       <c r="H47" t="n">
         <v>0.597</v>
@@ -4296,7 +4296,7 @@
         <v>0.2</v>
       </c>
       <c r="G48" t="n">
-        <v>0.225046454607493</v>
+        <v>0.225042789167732</v>
       </c>
       <c r="H48" t="n">
         <v>0.597</v>
@@ -4681,7 +4681,7 @@
         <v>0.016</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0168052928121508</v>
+        <v>0.0168076866963128</v>
       </c>
       <c r="H53" t="n">
         <v>0.035</v>
@@ -4758,7 +4758,7 @@
         <v>0.016</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0168052928121508</v>
+        <v>0.0168076866963128</v>
       </c>
       <c r="H54" t="n">
         <v>0.035</v>
@@ -4920,13 +4920,13 @@
         <v>2.8</v>
       </c>
       <c r="G56" t="n">
-        <v>3.31279382814668</v>
+        <v>3.39921842344782</v>
       </c>
       <c r="H56" t="n">
-        <v>8.27858418118784</v>
+        <v>9.130013478526751</v>
       </c>
       <c r="I56" t="n">
-        <v>6.86403</v>
+        <v>7.5451</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -4934,10 +4934,10 @@
         <v>2.8</v>
       </c>
       <c r="M56" t="n">
-        <v>5.71294</v>
+        <v>6.02968</v>
       </c>
       <c r="N56" t="n">
-        <v>6.64212</v>
+        <v>7.07638</v>
       </c>
       <c r="O56" t="n">
         <v>1800243</v>
@@ -5001,7 +5001,7 @@
         <v>0.01</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0139299729168981</v>
+        <v>0.0139277302614875</v>
       </c>
       <c r="H57" t="n">
         <v>0.169</v>
@@ -5082,7 +5082,7 @@
         <v>0.01</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0139299729168981</v>
+        <v>0.0139277302614875</v>
       </c>
       <c r="H58" t="n">
         <v>0.169</v>
@@ -5500,10 +5500,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.00155</v>
+        <v>0.00164</v>
       </c>
       <c r="G63" t="n">
-        <v>0.005162338669737</v>
+        <v>0.0051762693336451</v>
       </c>
       <c r="H63" t="n">
         <v>0.0429608672420805</v>
@@ -5514,7 +5514,7 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>0.0013</v>
+        <v>0.00136</v>
       </c>
       <c r="M63" t="n">
         <v>0.00865</v>
@@ -5581,10 +5581,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.00155</v>
+        <v>0.00164</v>
       </c>
       <c r="G64" t="n">
-        <v>0.005162338669737</v>
+        <v>0.0051762693336451</v>
       </c>
       <c r="H64" t="n">
         <v>0.0429608672420805</v>
@@ -5595,7 +5595,7 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>0.0013</v>
+        <v>0.00136</v>
       </c>
       <c r="M64" t="n">
         <v>0.00865</v>
@@ -6131,7 +6131,7 @@
         <v>0.0155</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0166316948382099</v>
+        <v>0.0166339690281638</v>
       </c>
       <c r="H71" t="n">
         <v>0.035</v>
@@ -6208,7 +6208,7 @@
         <v>0.0155</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0166316948382099</v>
+        <v>0.0166339690281638</v>
       </c>
       <c r="H72" t="n">
         <v>0.035</v>
@@ -6447,13 +6447,13 @@
         <v>3</v>
       </c>
       <c r="G75" t="n">
-        <v>3.29523668113351</v>
+        <v>3.36364080679594</v>
       </c>
       <c r="H75" t="n">
-        <v>9.288220149540489</v>
+        <v>9.130013478526751</v>
       </c>
       <c r="I75" t="n">
-        <v>7.5008</v>
+        <v>8.339729999999999</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -6461,10 +6461,10 @@
         <v>2.8</v>
       </c>
       <c r="M75" t="n">
-        <v>5.0612</v>
+        <v>5.337</v>
       </c>
       <c r="N75" t="n">
-        <v>6.79321</v>
+        <v>7.28985</v>
       </c>
       <c r="O75" t="n">
         <v>1800243</v>
@@ -6528,7 +6528,7 @@
         <v>0.011</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0149133228208046</v>
+        <v>0.0149113997579449</v>
       </c>
       <c r="H76" t="n">
         <v>0.169</v>
@@ -6609,7 +6609,7 @@
         <v>0.011</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0149133228208046</v>
+        <v>0.0149113997579449</v>
       </c>
       <c r="H77" t="n">
         <v>0.169</v>
@@ -7104,10 +7104,10 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.00123</v>
+        <v>0.00129</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0041619998863027</v>
+        <v>0.0041980399525533</v>
       </c>
       <c r="H83" t="n">
         <v>0.0429608672420805</v>
@@ -7118,7 +7118,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>0.00116</v>
+        <v>0.0012</v>
       </c>
       <c r="M83" t="n">
         <v>0.00589</v>
@@ -7185,10 +7185,10 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.00123</v>
+        <v>0.00129</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0041619998863027</v>
+        <v>0.0041980399525533</v>
       </c>
       <c r="H84" t="n">
         <v>0.0429608672420805</v>
@@ -7199,7 +7199,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
-        <v>0.00116</v>
+        <v>0.0012</v>
       </c>
       <c r="M84" t="n">
         <v>0.00589</v>
@@ -7812,7 +7812,7 @@
         <v>0.016</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0174692879442</v>
+        <v>0.0174716414951404</v>
       </c>
       <c r="H92" t="n">
         <v>0.042</v>
@@ -7889,7 +7889,7 @@
         <v>0.016</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0174692879442</v>
+        <v>0.0174716414951404</v>
       </c>
       <c r="H93" t="n">
         <v>0.042</v>
@@ -8128,13 +8128,13 @@
         <v>3.1</v>
       </c>
       <c r="G96" t="n">
-        <v>3.39576475203867</v>
+        <v>3.36281716737836</v>
       </c>
       <c r="H96" t="n">
-        <v>9.54764788969446</v>
+        <v>9.05461867901203</v>
       </c>
       <c r="I96" t="n">
-        <v>8.37726</v>
+        <v>8.339729999999999</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -8142,7 +8142,7 @@
         <v>2.95</v>
       </c>
       <c r="M96" t="n">
-        <v>4.57391</v>
+        <v>4.55614</v>
       </c>
       <c r="N96" t="n">
         <v>6.98248</v>
@@ -8371,7 +8371,7 @@
         <v>53</v>
       </c>
       <c r="G99" t="n">
-        <v>202.145596079556</v>
+        <v>202.142010739017</v>
       </c>
       <c r="H99" t="n">
         <v>4480</v>
@@ -8456,7 +8456,7 @@
         <v>53</v>
       </c>
       <c r="G100" t="n">
-        <v>202.145596079556</v>
+        <v>202.142010739017</v>
       </c>
       <c r="H100" t="n">
         <v>4480</v>
@@ -8541,7 +8541,7 @@
         <v>53</v>
       </c>
       <c r="G101" t="n">
-        <v>202.145596079556</v>
+        <v>202.142010739017</v>
       </c>
       <c r="H101" t="n">
         <v>4480</v>
@@ -8626,7 +8626,7 @@
         <v>53</v>
       </c>
       <c r="G102" t="n">
-        <v>202.145596079556</v>
+        <v>202.142010739017</v>
       </c>
       <c r="H102" t="n">
         <v>4480</v>
@@ -8785,10 +8785,10 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.00147</v>
+        <v>0.00154</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0025271142889298</v>
+        <v>0.002581765219691</v>
       </c>
       <c r="H104" t="n">
         <v>0.0370369060650829</v>
@@ -8799,10 +8799,10 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
-        <v>0.00116</v>
+        <v>0.00119</v>
       </c>
       <c r="M104" t="n">
-        <v>0.00299</v>
+        <v>0.00306</v>
       </c>
       <c r="N104" t="n">
         <v>0.00457</v>
@@ -8866,10 +8866,10 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.00147</v>
+        <v>0.00154</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0025271142889298</v>
+        <v>0.002581765219691</v>
       </c>
       <c r="H105" t="n">
         <v>0.0370369060650829</v>
@@ -8880,10 +8880,10 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
-        <v>0.00116</v>
+        <v>0.00119</v>
       </c>
       <c r="M105" t="n">
-        <v>0.00299</v>
+        <v>0.00306</v>
       </c>
       <c r="N105" t="n">
         <v>0.00457</v>
@@ -9493,7 +9493,7 @@
         <v>0.016</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0171774914074763</v>
+        <v>0.0171789933102167</v>
       </c>
       <c r="H113" t="n">
         <v>0.042</v>
@@ -9570,7 +9570,7 @@
         <v>0.016</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0171774914074763</v>
+        <v>0.0171789933102167</v>
       </c>
       <c r="H114" t="n">
         <v>0.042</v>
@@ -9809,13 +9809,13 @@
         <v>3.2</v>
       </c>
       <c r="G117" t="n">
-        <v>3.55802890298207</v>
+        <v>3.52508131832176</v>
       </c>
       <c r="H117" t="n">
-        <v>9.54764788969446</v>
+        <v>9.05461867901203</v>
       </c>
       <c r="I117" t="n">
-        <v>8.37726</v>
+        <v>8.339729999999999</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>3.1</v>
       </c>
       <c r="M117" t="n">
-        <v>4.57391</v>
+        <v>4.55614</v>
       </c>
       <c r="N117" t="n">
         <v>6.98248</v>
@@ -10052,7 +10052,7 @@
         <v>58</v>
       </c>
       <c r="G120" t="n">
-        <v>179.976104554133</v>
+        <v>179.972519213593</v>
       </c>
       <c r="H120" t="n">
         <v>4480</v>
@@ -10137,7 +10137,7 @@
         <v>58</v>
       </c>
       <c r="G121" t="n">
-        <v>179.976104554133</v>
+        <v>179.972519213593</v>
       </c>
       <c r="H121" t="n">
         <v>4480</v>
@@ -10222,7 +10222,7 @@
         <v>58</v>
       </c>
       <c r="G122" t="n">
-        <v>179.976104554133</v>
+        <v>179.972519213593</v>
       </c>
       <c r="H122" t="n">
         <v>4480</v>
@@ -10307,7 +10307,7 @@
         <v>58</v>
       </c>
       <c r="G123" t="n">
-        <v>179.976104554133</v>
+        <v>179.972519213593</v>
       </c>
       <c r="H123" t="n">
         <v>4480</v>
@@ -10466,10 +10466,10 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0.00185</v>
+        <v>0.00196</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0042214355012054</v>
+        <v>0.0042942240672899</v>
       </c>
       <c r="H125" t="n">
         <v>0.08140080968365709</v>
@@ -10480,13 +10480,13 @@
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
-        <v>0.00154</v>
+        <v>0.00165</v>
       </c>
       <c r="M125" t="n">
-        <v>0.00402</v>
+        <v>0.00415</v>
       </c>
       <c r="N125" t="n">
-        <v>0.00528</v>
+        <v>0.00539</v>
       </c>
       <c r="O125" t="n">
         <v>1800243</v>
@@ -10547,10 +10547,10 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0.00185</v>
+        <v>0.00196</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0042214355012054</v>
+        <v>0.0042942240672899</v>
       </c>
       <c r="H126" t="n">
         <v>0.08140080968365709</v>
@@ -10561,13 +10561,13 @@
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
-        <v>0.00154</v>
+        <v>0.00165</v>
       </c>
       <c r="M126" t="n">
-        <v>0.00402</v>
+        <v>0.00415</v>
       </c>
       <c r="N126" t="n">
-        <v>0.00528</v>
+        <v>0.00539</v>
       </c>
       <c r="O126" t="n">
         <v>1800243</v>
@@ -11174,7 +11174,7 @@
         <v>0.015</v>
       </c>
       <c r="G134" t="n">
-        <v>0.0163941580741429</v>
+        <v>0.0163956599768833</v>
       </c>
       <c r="H134" t="n">
         <v>0.042</v>
@@ -11251,7 +11251,7 @@
         <v>0.015</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0163941580741429</v>
+        <v>0.0163956599768833</v>
       </c>
       <c r="H135" t="n">
         <v>0.042</v>
@@ -11490,13 +11490,13 @@
         <v>3.32</v>
       </c>
       <c r="G138" t="n">
-        <v>3.7205007771855</v>
+        <v>3.68735418232128</v>
       </c>
       <c r="H138" t="n">
-        <v>9.54764788969446</v>
+        <v>9.05461867901203</v>
       </c>
       <c r="I138" t="n">
-        <v>9.103590000000001</v>
+        <v>8.51244</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -11507,7 +11507,7 @@
         <v>4.57076</v>
       </c>
       <c r="N138" t="n">
-        <v>6.6563</v>
+        <v>6.64129</v>
       </c>
       <c r="O138" t="n">
         <v>1800243</v>
@@ -11733,7 +11733,7 @@
         <v>56</v>
       </c>
       <c r="G141" t="n">
-        <v>113.14810635679</v>
+        <v>113.144459200035</v>
       </c>
       <c r="H141" t="n">
         <v>1000</v>
@@ -11818,7 +11818,7 @@
         <v>56</v>
       </c>
       <c r="G142" t="n">
-        <v>113.14810635679</v>
+        <v>113.144459200035</v>
       </c>
       <c r="H142" t="n">
         <v>1000</v>
@@ -11903,7 +11903,7 @@
         <v>56</v>
       </c>
       <c r="G143" t="n">
-        <v>113.14810635679</v>
+        <v>113.144459200035</v>
       </c>
       <c r="H143" t="n">
         <v>1000</v>
@@ -11988,7 +11988,7 @@
         <v>56</v>
       </c>
       <c r="G144" t="n">
-        <v>113.14810635679</v>
+        <v>113.144459200035</v>
       </c>
       <c r="H144" t="n">
         <v>1000</v>
@@ -12147,10 +12147,10 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0.00225</v>
+        <v>0.00237</v>
       </c>
       <c r="G146" t="n">
-        <v>0.004546201408102</v>
+        <v>0.0046268862023207</v>
       </c>
       <c r="H146" t="n">
         <v>0.08140080968365709</v>
@@ -12161,10 +12161,10 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
-        <v>0.00286</v>
+        <v>0.00303</v>
       </c>
       <c r="M146" t="n">
-        <v>0.00489</v>
+        <v>0.00493</v>
       </c>
       <c r="N146" t="n">
         <v>0.00671</v>
@@ -12228,10 +12228,10 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0.00225</v>
+        <v>0.00237</v>
       </c>
       <c r="G147" t="n">
-        <v>0.004546201408102</v>
+        <v>0.0046268862023207</v>
       </c>
       <c r="H147" t="n">
         <v>0.08140080968365709</v>
@@ -12242,10 +12242,10 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
-        <v>0.00286</v>
+        <v>0.00303</v>
       </c>
       <c r="M147" t="n">
-        <v>0.00489</v>
+        <v>0.00493</v>
       </c>
       <c r="N147" t="n">
         <v>0.00671</v>
@@ -12855,7 +12855,7 @@
         <v>0.015</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0154108247408096</v>
+        <v>0.01541232664355</v>
       </c>
       <c r="H155" t="n">
         <v>0.042</v>
@@ -12932,7 +12932,7 @@
         <v>0.015</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0154108247408096</v>
+        <v>0.01541232664355</v>
       </c>
       <c r="H156" t="n">
         <v>0.042</v>
@@ -13168,16 +13168,16 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>3.39713</v>
+        <v>3.37102</v>
       </c>
       <c r="G159" t="n">
-        <v>3.83877000795473</v>
+        <v>3.80562341309051</v>
       </c>
       <c r="H159" t="n">
-        <v>9.54764788969446</v>
+        <v>9.05461867901203</v>
       </c>
       <c r="I159" t="n">
-        <v>9.103590000000001</v>
+        <v>8.51244</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -13188,7 +13188,7 @@
         <v>4.666</v>
       </c>
       <c r="N159" t="n">
-        <v>6.6563</v>
+        <v>6.64129</v>
       </c>
       <c r="O159" t="n">
         <v>1800243</v>
@@ -13414,7 +13414,7 @@
         <v>58</v>
       </c>
       <c r="G162" t="n">
-        <v>110.712108222699</v>
+        <v>110.708397080737</v>
       </c>
       <c r="H162" t="n">
         <v>1000</v>
@@ -13499,7 +13499,7 @@
         <v>58</v>
       </c>
       <c r="G163" t="n">
-        <v>110.712108222699</v>
+        <v>110.708397080737</v>
       </c>
       <c r="H163" t="n">
         <v>1000</v>
@@ -13584,7 +13584,7 @@
         <v>58</v>
       </c>
       <c r="G164" t="n">
-        <v>110.712108222699</v>
+        <v>110.708397080737</v>
       </c>
       <c r="H164" t="n">
         <v>1000</v>
@@ -13669,7 +13669,7 @@
         <v>58</v>
       </c>
       <c r="G165" t="n">
-        <v>110.712108222699</v>
+        <v>110.708397080737</v>
       </c>
       <c r="H165" t="n">
         <v>1000</v>
@@ -13828,10 +13828,10 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0.00286</v>
+        <v>0.003</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0067332805963262</v>
+        <v>0.0068105147826731</v>
       </c>
       <c r="H167" t="n">
         <v>0.0984997315783339</v>
@@ -13842,10 +13842,10 @@
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
-        <v>0.00364</v>
+        <v>0.00382</v>
       </c>
       <c r="M167" t="n">
-        <v>0.00591</v>
+        <v>0.00592</v>
       </c>
       <c r="N167" t="n">
         <v>0.00975</v>
@@ -13909,10 +13909,10 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0.00286</v>
+        <v>0.003</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0067332805963262</v>
+        <v>0.0068105147826731</v>
       </c>
       <c r="H168" t="n">
         <v>0.0984997315783339</v>
@@ -13923,10 +13923,10 @@
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
-        <v>0.00364</v>
+        <v>0.00382</v>
       </c>
       <c r="M168" t="n">
-        <v>0.00591</v>
+        <v>0.00592</v>
       </c>
       <c r="N168" t="n">
         <v>0.00975</v>
@@ -14536,7 +14536,7 @@
         <v>0.0135</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0149249911111823</v>
+        <v>0.0149265448036724</v>
       </c>
       <c r="H176" t="n">
         <v>0.042</v>
@@ -14613,7 +14613,7 @@
         <v>0.0135</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0149249911111823</v>
+        <v>0.0149265448036724</v>
       </c>
       <c r="H177" t="n">
         <v>0.042</v>
@@ -14852,13 +14852,13 @@
         <v>3.3</v>
       </c>
       <c r="G180" t="n">
-        <v>3.63297610684344</v>
+        <v>3.61435962755947</v>
       </c>
       <c r="H180" t="n">
-        <v>9.54764788969446</v>
+        <v>9.05461867901203</v>
       </c>
       <c r="I180" t="n">
-        <v>6.39385</v>
+        <v>6.32118</v>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
@@ -15095,7 +15095,7 @@
         <v>58</v>
       </c>
       <c r="G183" t="n">
-        <v>127.29105559112</v>
+        <v>127.287344449158</v>
       </c>
       <c r="H183" t="n">
         <v>1000</v>
@@ -15180,7 +15180,7 @@
         <v>58</v>
       </c>
       <c r="G184" t="n">
-        <v>127.29105559112</v>
+        <v>127.287344449158</v>
       </c>
       <c r="H184" t="n">
         <v>1000</v>
@@ -15265,7 +15265,7 @@
         <v>58</v>
       </c>
       <c r="G185" t="n">
-        <v>127.29105559112</v>
+        <v>127.287344449158</v>
       </c>
       <c r="H185" t="n">
         <v>1000</v>
@@ -15350,7 +15350,7 @@
         <v>58</v>
       </c>
       <c r="G186" t="n">
-        <v>127.29105559112</v>
+        <v>127.287344449158</v>
       </c>
       <c r="H186" t="n">
         <v>1000</v>
@@ -15509,10 +15509,10 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0.00358</v>
+        <v>0.0036</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0069685881996179</v>
+        <v>0.0070199632480564</v>
       </c>
       <c r="H188" t="n">
         <v>0.0984997315783339</v>
@@ -15523,10 +15523,10 @@
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
-        <v>0.00367</v>
+        <v>0.00373</v>
       </c>
       <c r="M188" t="n">
-        <v>0.00592</v>
+        <v>0.00595</v>
       </c>
       <c r="N188" t="n">
         <v>0.01001</v>
@@ -15590,10 +15590,10 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0.00358</v>
+        <v>0.0036</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0069685881996179</v>
+        <v>0.0070199632480564</v>
       </c>
       <c r="H189" t="n">
         <v>0.0984997315783339</v>
@@ -15604,10 +15604,10 @@
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
-        <v>0.00367</v>
+        <v>0.00373</v>
       </c>
       <c r="M189" t="n">
-        <v>0.00592</v>
+        <v>0.00595</v>
       </c>
       <c r="N189" t="n">
         <v>0.01001</v>
@@ -15674,7 +15674,7 @@
         <v>0.1775</v>
       </c>
       <c r="G190" t="n">
-        <v>0.204516343321157</v>
+        <v>0.204512741078633</v>
       </c>
       <c r="H190" t="n">
         <v>0.5669999999999999</v>
@@ -15755,7 +15755,7 @@
         <v>0.1775</v>
       </c>
       <c r="G191" t="n">
-        <v>0.204516343321157</v>
+        <v>0.204512741078633</v>
       </c>
       <c r="H191" t="n">
         <v>0.5669999999999999</v>
@@ -16452,7 +16452,7 @@
         <v>4.175</v>
       </c>
       <c r="G200" t="n">
-        <v>10.1502247248384</v>
+        <v>10.1502377804975</v>
       </c>
       <c r="H200" t="n">
         <v>65</v>
@@ -16533,10 +16533,10 @@
         <v>3.3</v>
       </c>
       <c r="G201" t="n">
-        <v>3.48217690305132</v>
+        <v>3.47331522411521</v>
       </c>
       <c r="H201" t="n">
-        <v>9.16925302510395</v>
+        <v>8.80592418872379</v>
       </c>
       <c r="I201" t="n">
         <v>5.59</v>
@@ -17190,10 +17190,10 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0.00401</v>
+        <v>0.00407</v>
       </c>
       <c r="G209" t="n">
-        <v>0.0077994658972848</v>
+        <v>0.0078284382374587</v>
       </c>
       <c r="H209" t="n">
         <v>0.0984997315783339</v>
@@ -17204,7 +17204,7 @@
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
-        <v>0.00548</v>
+        <v>0.00558</v>
       </c>
       <c r="M209" t="n">
         <v>0.00748</v>
@@ -17271,10 +17271,10 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0.00401</v>
+        <v>0.00407</v>
       </c>
       <c r="G210" t="n">
-        <v>0.0077994658972848</v>
+        <v>0.0078284382374587</v>
       </c>
       <c r="H210" t="n">
         <v>0.0984997315783339</v>
@@ -17285,7 +17285,7 @@
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
-        <v>0.00548</v>
+        <v>0.00558</v>
       </c>
       <c r="M210" t="n">
         <v>0.00748</v>
@@ -17355,7 +17355,7 @@
         <v>0.1805</v>
       </c>
       <c r="G211" t="n">
-        <v>0.215050826079777</v>
+        <v>0.215047223837254</v>
       </c>
       <c r="H211" t="n">
         <v>0.5669999999999999</v>
@@ -17436,7 +17436,7 @@
         <v>0.1805</v>
       </c>
       <c r="G212" t="n">
-        <v>0.215050826079777</v>
+        <v>0.215047223837254</v>
       </c>
       <c r="H212" t="n">
         <v>0.5669999999999999</v>
@@ -18026,6 +18026,1687 @@
         </is>
       </c>
     </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.6634</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>0.681</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0.6872</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O220" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="P220" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G221" t="n">
+        <v>7.34233887206773</v>
+      </c>
+      <c r="H221" t="n">
+        <v>65</v>
+      </c>
+      <c r="I221" t="n">
+        <v>39.875</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="M221" t="n">
+        <v>8.904999999999999</v>
+      </c>
+      <c r="N221" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="O221" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="P221" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G222" t="n">
+        <v>3.54299763089762</v>
+      </c>
+      <c r="H222" t="n">
+        <v>8.80592418872379</v>
+      </c>
+      <c r="I222" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M222" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N222" t="n">
+        <v>5.488</v>
+      </c>
+      <c r="O222" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="P222" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0.0328</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>0.0155</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0.01964</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0.02558</v>
+      </c>
+      <c r="O223" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="P223" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0.0328</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>0.0155</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0.01964</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0.02558</v>
+      </c>
+      <c r="O224" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="P224" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>52</v>
+      </c>
+      <c r="G225" t="n">
+        <v>165.80701754386</v>
+      </c>
+      <c r="H225" t="n">
+        <v>3482</v>
+      </c>
+      <c r="I225" t="n">
+        <v>525.1</v>
+      </c>
+      <c r="J225" t="n">
+        <v>3.50877192982456</v>
+      </c>
+      <c r="K225" t="n">
+        <v>14.0350877192982</v>
+      </c>
+      <c r="L225" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="M225" t="n">
+        <v>140</v>
+      </c>
+      <c r="N225" t="n">
+        <v>367.6</v>
+      </c>
+      <c r="O225" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="P225" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T225" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>52</v>
+      </c>
+      <c r="G226" t="n">
+        <v>165.80701754386</v>
+      </c>
+      <c r="H226" t="n">
+        <v>3482</v>
+      </c>
+      <c r="I226" t="n">
+        <v>525.1</v>
+      </c>
+      <c r="J226" t="n">
+        <v>3.50877192982456</v>
+      </c>
+      <c r="K226" t="n">
+        <v>14.0350877192982</v>
+      </c>
+      <c r="L226" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="M226" t="n">
+        <v>140</v>
+      </c>
+      <c r="N226" t="n">
+        <v>367.6</v>
+      </c>
+      <c r="O226" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="P226" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>52</v>
+      </c>
+      <c r="G227" t="n">
+        <v>165.80701754386</v>
+      </c>
+      <c r="H227" t="n">
+        <v>3482</v>
+      </c>
+      <c r="I227" t="n">
+        <v>525.1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>3.50877192982456</v>
+      </c>
+      <c r="K227" t="n">
+        <v>14.0350877192982</v>
+      </c>
+      <c r="L227" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="M227" t="n">
+        <v>140</v>
+      </c>
+      <c r="N227" t="n">
+        <v>367.6</v>
+      </c>
+      <c r="O227" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="P227" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>52</v>
+      </c>
+      <c r="G228" t="n">
+        <v>165.80701754386</v>
+      </c>
+      <c r="H228" t="n">
+        <v>3482</v>
+      </c>
+      <c r="I228" t="n">
+        <v>525.1</v>
+      </c>
+      <c r="J228" t="n">
+        <v>3.50877192982456</v>
+      </c>
+      <c r="K228" t="n">
+        <v>14.0350877192982</v>
+      </c>
+      <c r="L228" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="M228" t="n">
+        <v>140</v>
+      </c>
+      <c r="N228" t="n">
+        <v>367.6</v>
+      </c>
+      <c r="O228" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="P228" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>132</v>
+      </c>
+      <c r="G229" t="n">
+        <v>131.76</v>
+      </c>
+      <c r="H229" t="n">
+        <v>138</v>
+      </c>
+      <c r="I229" t="n">
+        <v>138</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>130.4</v>
+      </c>
+      <c r="M229" t="n">
+        <v>136.95</v>
+      </c>
+      <c r="N229" t="n">
+        <v>138</v>
+      </c>
+      <c r="O229" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="P229" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T229" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="U229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>0.00422</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.0067833339000851</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0.0984997315783339</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0.01761</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>0.00502</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0.00872</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0.01127</v>
+      </c>
+      <c r="O230" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="P230" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>0.00422</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0.0067833339000851</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0.0984997315783339</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0.01761</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>0.00502</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0.00872</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0.01127</v>
+      </c>
+      <c r="O231" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="P231" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T231" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>0.1925</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0.224633430733805</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0.5218</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0.40532</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0.48158</v>
+      </c>
+      <c r="O232" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="P232" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>0.1925</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0.224633430733805</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0.5218</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0.40532</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0.48158</v>
+      </c>
+      <c r="O233" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="P233" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T233" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="G234" t="n">
+        <v>7.816</v>
+      </c>
+      <c r="H234" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="I234" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>7.835</v>
+      </c>
+      <c r="M234" t="n">
+        <v>7.9943</v>
+      </c>
+      <c r="N234" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="O234" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="P234" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T234" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="U234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0.237474576271186</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0.5322</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>0.2865</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0.4147</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0.50348</v>
+      </c>
+      <c r="O235" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="P235" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T235" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0.237474576271186</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0.5322</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>0.2865</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0.4147</v>
+      </c>
+      <c r="N236" t="n">
+        <v>0.50348</v>
+      </c>
+      <c r="O236" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="P236" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F237" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0.302758620689655</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0.4564</v>
+      </c>
+      <c r="N237" t="n">
+        <v>0.5886</v>
+      </c>
+      <c r="O237" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="P237" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T237" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0.302758620689655</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0.4564</v>
+      </c>
+      <c r="N238" t="n">
+        <v>0.5886</v>
+      </c>
+      <c r="O238" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="P238" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T238" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0.0180344827586207</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0.0416</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>0.0185</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="N239" t="n">
+        <v>0.02686</v>
+      </c>
+      <c r="O239" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="P239" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T239" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0.0180344827586207</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0.0416</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>0.0185</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="N240" t="n">
+        <v>0.02686</v>
+      </c>
+      <c r="O240" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="P240" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T240" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MakotukuatSH49A_e6b6f648fa.xlsx
+++ b/state_results/Rivers/MakotukuatSH49A_e6b6f648fa.xlsx
@@ -570,13 +570,13 @@
         <v>3.2</v>
       </c>
       <c r="G2" t="n">
-        <v>3.74098186030617</v>
+        <v>3.92199780489067</v>
       </c>
       <c r="H2" t="n">
-        <v>9.130013478526751</v>
+        <v>10.6843221062106</v>
       </c>
       <c r="I2" t="n">
-        <v>8.763439999999999</v>
+        <v>10.23614</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -584,10 +584,10 @@
         <v>2.5</v>
       </c>
       <c r="M2" t="n">
-        <v>6.18464</v>
+        <v>6.48836</v>
       </c>
       <c r="N2" t="n">
-        <v>7.21075</v>
+        <v>8.681100000000001</v>
       </c>
       <c r="O2" t="n">
         <v>1800243</v>
@@ -2020,13 +2020,13 @@
         <v>2.71</v>
       </c>
       <c r="G20" t="n">
-        <v>3.33830335779247</v>
+        <v>3.4751690719905</v>
       </c>
       <c r="H20" t="n">
-        <v>9.130013478526751</v>
+        <v>10.6843221062106</v>
       </c>
       <c r="I20" t="n">
-        <v>7.92866</v>
+        <v>9.4001</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2037,7 +2037,7 @@
         <v>5.3655</v>
       </c>
       <c r="N20" t="n">
-        <v>7.07092</v>
+        <v>7.95609</v>
       </c>
       <c r="O20" t="n">
         <v>1800243</v>
@@ -3470,13 +3470,13 @@
         <v>2.755</v>
       </c>
       <c r="G38" t="n">
-        <v>3.40121642785696</v>
+        <v>3.48406001691014</v>
       </c>
       <c r="H38" t="n">
-        <v>9.130013478526751</v>
+        <v>10.6843221062106</v>
       </c>
       <c r="I38" t="n">
-        <v>7.56674</v>
+        <v>8.55899</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -3484,10 +3484,10 @@
         <v>2.8</v>
       </c>
       <c r="M38" t="n">
-        <v>6.03998</v>
+        <v>6.198</v>
       </c>
       <c r="N38" t="n">
-        <v>7.0873</v>
+        <v>7.66135</v>
       </c>
       <c r="O38" t="n">
         <v>1800243</v>
@@ -4920,13 +4920,13 @@
         <v>2.8</v>
       </c>
       <c r="G56" t="n">
-        <v>3.39921842344782</v>
+        <v>3.48050847120901</v>
       </c>
       <c r="H56" t="n">
-        <v>9.130013478526751</v>
+        <v>10.6843221062106</v>
       </c>
       <c r="I56" t="n">
-        <v>7.5451</v>
+        <v>8.514659999999999</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -4934,10 +4934,10 @@
         <v>2.8</v>
       </c>
       <c r="M56" t="n">
-        <v>6.02968</v>
+        <v>6.147</v>
       </c>
       <c r="N56" t="n">
-        <v>7.07638</v>
+        <v>7.64927</v>
       </c>
       <c r="O56" t="n">
         <v>1800243</v>
@@ -6447,13 +6447,13 @@
         <v>3</v>
       </c>
       <c r="G75" t="n">
-        <v>3.36364080679594</v>
+        <v>3.56987862749283</v>
       </c>
       <c r="H75" t="n">
-        <v>9.130013478526751</v>
+        <v>10.6843221062106</v>
       </c>
       <c r="I75" t="n">
-        <v>8.339729999999999</v>
+        <v>9.46979</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -6461,10 +6461,10 @@
         <v>2.8</v>
       </c>
       <c r="M75" t="n">
-        <v>5.337</v>
+        <v>6.147</v>
       </c>
       <c r="N75" t="n">
-        <v>7.28985</v>
+        <v>8.566039999999999</v>
       </c>
       <c r="O75" t="n">
         <v>1800243</v>
@@ -8128,13 +8128,13 @@
         <v>3.1</v>
       </c>
       <c r="G96" t="n">
-        <v>3.36281716737836</v>
+        <v>3.44924914400363</v>
       </c>
       <c r="H96" t="n">
-        <v>9.05461867901203</v>
+        <v>9.485783091098011</v>
       </c>
       <c r="I96" t="n">
-        <v>8.339729999999999</v>
+        <v>8.25656</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -8142,10 +8142,10 @@
         <v>2.95</v>
       </c>
       <c r="M96" t="n">
-        <v>4.55614</v>
+        <v>4.649</v>
       </c>
       <c r="N96" t="n">
-        <v>6.98248</v>
+        <v>7.74305</v>
       </c>
       <c r="O96" t="n">
         <v>1800243</v>
@@ -9809,13 +9809,13 @@
         <v>3.2</v>
       </c>
       <c r="G117" t="n">
-        <v>3.52508131832176</v>
+        <v>3.61151329494702</v>
       </c>
       <c r="H117" t="n">
-        <v>9.05461867901203</v>
+        <v>9.485783091098011</v>
       </c>
       <c r="I117" t="n">
-        <v>8.339729999999999</v>
+        <v>8.25656</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -9823,10 +9823,10 @@
         <v>3.1</v>
       </c>
       <c r="M117" t="n">
-        <v>4.55614</v>
+        <v>4.649</v>
       </c>
       <c r="N117" t="n">
-        <v>6.98248</v>
+        <v>7.74305</v>
       </c>
       <c r="O117" t="n">
         <v>1800243</v>
@@ -11490,13 +11490,13 @@
         <v>3.32</v>
       </c>
       <c r="G138" t="n">
-        <v>3.68735418232128</v>
+        <v>3.80133447259245</v>
       </c>
       <c r="H138" t="n">
-        <v>9.05461867901203</v>
+        <v>9.485783091098011</v>
       </c>
       <c r="I138" t="n">
-        <v>8.51244</v>
+        <v>8.79157</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -11504,10 +11504,10 @@
         <v>3.05</v>
       </c>
       <c r="M138" t="n">
-        <v>4.57076</v>
+        <v>4.666</v>
       </c>
       <c r="N138" t="n">
-        <v>6.64129</v>
+        <v>8.175660000000001</v>
       </c>
       <c r="O138" t="n">
         <v>1800243</v>
@@ -13168,16 +13168,16 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>3.37102</v>
+        <v>3.4</v>
       </c>
       <c r="G159" t="n">
-        <v>3.80562341309051</v>
+        <v>3.91960370336168</v>
       </c>
       <c r="H159" t="n">
-        <v>9.05461867901203</v>
+        <v>9.485783091098011</v>
       </c>
       <c r="I159" t="n">
-        <v>8.51244</v>
+        <v>8.79157</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -13185,10 +13185,10 @@
         <v>3.1</v>
       </c>
       <c r="M159" t="n">
-        <v>4.666</v>
+        <v>4.766</v>
       </c>
       <c r="N159" t="n">
-        <v>6.64129</v>
+        <v>8.175660000000001</v>
       </c>
       <c r="O159" t="n">
         <v>1800243</v>
@@ -14852,13 +14852,13 @@
         <v>3.3</v>
       </c>
       <c r="G180" t="n">
-        <v>3.61435962755947</v>
+        <v>3.59500240391318</v>
       </c>
       <c r="H180" t="n">
-        <v>9.05461867901203</v>
+        <v>8.848376870331389</v>
       </c>
       <c r="I180" t="n">
-        <v>6.32118</v>
+        <v>6.18435</v>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
@@ -16533,10 +16533,10 @@
         <v>3.3</v>
       </c>
       <c r="G201" t="n">
-        <v>3.47331522411521</v>
+        <v>3.47435065537394</v>
       </c>
       <c r="H201" t="n">
-        <v>8.80592418872379</v>
+        <v>8.848376870331389</v>
       </c>
       <c r="I201" t="n">
         <v>5.59</v>
@@ -18214,10 +18214,10 @@
         <v>3.35</v>
       </c>
       <c r="G222" t="n">
-        <v>3.54299763089762</v>
+        <v>3.54432427719786</v>
       </c>
       <c r="H222" t="n">
-        <v>8.80592418872379</v>
+        <v>8.848376870331389</v>
       </c>
       <c r="I222" t="n">
         <v>5.68</v>
